--- a/models/calculation engines/cbix2/outputs/default/common_data_inputs/actual_price_determination_from_CBIX_price/common_data_inputs_global_factors.xlsx
+++ b/models/calculation engines/cbix2/outputs/default/common_data_inputs/actual_price_determination_from_CBIX_price/common_data_inputs_global_factors.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH46"/>
+  <dimension ref="A1:AH49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,7 +635,7 @@
         <v>0.975</v>
       </c>
       <c r="J2" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K2" t="n">
         <v>145.89</v>
@@ -653,7 +653,7 @@
         <v>4797</v>
       </c>
       <c r="P2" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q2" t="n">
         <v>0.12</v>
@@ -677,10 +677,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>23643.7088248818</v>
+        <v>23833.8924529792</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.6280286991558141</v>
+        <v>0.579582898547526</v>
       </c>
       <c r="Z2" t="n">
         <v>0</v>
@@ -692,13 +692,13 @@
         <v>0</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.0625563615577952</v>
+        <v>0.0881456997739181</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.000869231290442256</v>
+        <v>0</v>
       </c>
       <c r="AE2" t="n">
-        <v>1.15</v>
+        <v>1.04322951829105</v>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
@@ -709,7 +709,7 @@
         <v>0.003</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -741,7 +741,7 @@
         <v>0.975</v>
       </c>
       <c r="J3" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K3" t="n">
         <v>145.89</v>
@@ -759,7 +759,7 @@
         <v>4797</v>
       </c>
       <c r="P3" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q3" t="n">
         <v>0.12</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>23643.7088248818</v>
+        <v>23833.8924529792</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.6280286991558141</v>
+        <v>0.579582898547526</v>
       </c>
       <c r="Z3" t="n">
         <v>0</v>
@@ -798,13 +798,13 @@
         <v>0</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.0625563615577952</v>
+        <v>0.0881456997739181</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.000869231290442256</v>
+        <v>0</v>
       </c>
       <c r="AE3" t="n">
-        <v>1.15</v>
+        <v>1.04322951829105</v>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
@@ -815,7 +815,7 @@
         <v>0.003</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -847,7 +847,7 @@
         <v>0.975</v>
       </c>
       <c r="J4" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K4" t="n">
         <v>145.89</v>
@@ -865,7 +865,7 @@
         <v>4797</v>
       </c>
       <c r="P4" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q4" t="n">
         <v>0.12</v>
@@ -889,10 +889,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>23643.7088248818</v>
+        <v>23833.8924529792</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.6280286991558141</v>
+        <v>0.579582898547526</v>
       </c>
       <c r="Z4" t="n">
         <v>0</v>
@@ -904,13 +904,13 @@
         <v>0</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.0625563615577952</v>
+        <v>0.0881456997739181</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.000869231290442256</v>
+        <v>0</v>
       </c>
       <c r="AE4" t="n">
-        <v>1.15</v>
+        <v>1.04322951829105</v>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
@@ -921,7 +921,7 @@
         <v>0.003</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -953,7 +953,7 @@
         <v>0.975</v>
       </c>
       <c r="J5" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K5" t="n">
         <v>145.89</v>
@@ -971,7 +971,7 @@
         <v>4797</v>
       </c>
       <c r="P5" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q5" t="n">
         <v>0.12</v>
@@ -995,10 +995,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>23643.7088248818</v>
+        <v>23833.8924529792</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.6280286991558141</v>
+        <v>0.579582898547526</v>
       </c>
       <c r="Z5" t="n">
         <v>0</v>
@@ -1010,13 +1010,13 @@
         <v>0</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.0625563615577952</v>
+        <v>0.0881456997739181</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.000869231290442256</v>
+        <v>0</v>
       </c>
       <c r="AE5" t="n">
-        <v>1.15</v>
+        <v>1.04322951829105</v>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         <v>0.003</v>
       </c>
       <c r="AH5" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1059,7 +1059,7 @@
         <v>0.975</v>
       </c>
       <c r="J6" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K6" t="n">
         <v>145.89</v>
@@ -1077,7 +1077,7 @@
         <v>4797</v>
       </c>
       <c r="P6" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q6" t="n">
         <v>0.12</v>
@@ -1101,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>23643.7088248818</v>
+        <v>23833.8924529792</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.6280286991558141</v>
+        <v>0.579582898547526</v>
       </c>
       <c r="Z6" t="n">
         <v>0</v>
@@ -1116,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.0625563615577952</v>
+        <v>0.0881456997739181</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.000869231290442256</v>
+        <v>0</v>
       </c>
       <c r="AE6" t="n">
-        <v>1.15</v>
+        <v>1.04322951829105</v>
       </c>
       <c r="AF6" t="inlineStr">
         <is>
@@ -1133,7 +1133,7 @@
         <v>0.003</v>
       </c>
       <c r="AH6" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1165,7 +1165,7 @@
         <v>0.975</v>
       </c>
       <c r="J7" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K7" t="n">
         <v>145.89</v>
@@ -1183,7 +1183,7 @@
         <v>4797</v>
       </c>
       <c r="P7" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q7" t="n">
         <v>0.12</v>
@@ -1207,10 +1207,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>23643.7088248818</v>
+        <v>23833.8924529792</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.6280286991558141</v>
+        <v>0.579582898547526</v>
       </c>
       <c r="Z7" t="n">
         <v>0</v>
@@ -1222,13 +1222,13 @@
         <v>0</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.0625563615577952</v>
+        <v>0.0881456997739181</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.000869231290442256</v>
+        <v>0</v>
       </c>
       <c r="AE7" t="n">
-        <v>1.15</v>
+        <v>1.04322951829105</v>
       </c>
       <c r="AF7" t="inlineStr">
         <is>
@@ -1239,7 +1239,7 @@
         <v>0.003</v>
       </c>
       <c r="AH7" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1271,7 +1271,7 @@
         <v>0.975</v>
       </c>
       <c r="J8" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K8" t="n">
         <v>145.89</v>
@@ -1289,7 +1289,7 @@
         <v>4797</v>
       </c>
       <c r="P8" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q8" t="n">
         <v>0.12</v>
@@ -1313,10 +1313,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>23643.7088248818</v>
+        <v>23833.8924529792</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.6280286991558141</v>
+        <v>0.579582898547526</v>
       </c>
       <c r="Z8" t="n">
         <v>0</v>
@@ -1328,13 +1328,13 @@
         <v>0</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.0625563615577952</v>
+        <v>0.0881456997739181</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.000869231290442256</v>
+        <v>0</v>
       </c>
       <c r="AE8" t="n">
-        <v>1.15</v>
+        <v>1.04322951829105</v>
       </c>
       <c r="AF8" t="inlineStr">
         <is>
@@ -1345,7 +1345,7 @@
         <v>0.003</v>
       </c>
       <c r="AH8" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1377,7 +1377,7 @@
         <v>0.975</v>
       </c>
       <c r="J9" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K9" t="n">
         <v>145.89</v>
@@ -1395,7 +1395,7 @@
         <v>4797</v>
       </c>
       <c r="P9" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q9" t="n">
         <v>0.12</v>
@@ -1419,10 +1419,10 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>23643.7088248818</v>
+        <v>23833.8924529792</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.6280286991558141</v>
+        <v>0.579582898547526</v>
       </c>
       <c r="Z9" t="n">
         <v>0</v>
@@ -1434,13 +1434,13 @@
         <v>0</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.0625563615577952</v>
+        <v>0.0881456997739181</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.000869231290442256</v>
+        <v>0</v>
       </c>
       <c r="AE9" t="n">
-        <v>1.15</v>
+        <v>1.04322951829105</v>
       </c>
       <c r="AF9" t="inlineStr">
         <is>
@@ -1451,7 +1451,7 @@
         <v>0.003</v>
       </c>
       <c r="AH9" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1483,7 +1483,7 @@
         <v>0.975</v>
       </c>
       <c r="J10" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K10" t="n">
         <v>145.89</v>
@@ -1501,7 +1501,7 @@
         <v>4797</v>
       </c>
       <c r="P10" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q10" t="n">
         <v>0.12</v>
@@ -1525,10 +1525,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>23643.7088248818</v>
+        <v>23833.8924529792</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.6280286991558141</v>
+        <v>0.579582898547526</v>
       </c>
       <c r="Z10" t="n">
         <v>0</v>
@@ -1540,13 +1540,13 @@
         <v>0</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.0625563615577952</v>
+        <v>0.0881456997739181</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.000869231290442256</v>
+        <v>0</v>
       </c>
       <c r="AE10" t="n">
-        <v>1.15</v>
+        <v>1.04322951829105</v>
       </c>
       <c r="AF10" t="inlineStr">
         <is>
@@ -1557,7 +1557,7 @@
         <v>0.003</v>
       </c>
       <c r="AH10" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1589,7 +1589,7 @@
         <v>0.975</v>
       </c>
       <c r="J11" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K11" t="n">
         <v>145.89</v>
@@ -1607,7 +1607,7 @@
         <v>4797</v>
       </c>
       <c r="P11" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q11" t="n">
         <v>0.12</v>
@@ -1631,10 +1631,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>23643.7088248818</v>
+        <v>23833.8924529792</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.6280286991558141</v>
+        <v>0.579582898547526</v>
       </c>
       <c r="Z11" t="n">
         <v>0</v>
@@ -1646,13 +1646,13 @@
         <v>0</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.0625563615577952</v>
+        <v>0.0881456997739181</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.000869231290442256</v>
+        <v>0</v>
       </c>
       <c r="AE11" t="n">
-        <v>1.15</v>
+        <v>1.04322951829105</v>
       </c>
       <c r="AF11" t="inlineStr">
         <is>
@@ -1663,7 +1663,7 @@
         <v>0.003</v>
       </c>
       <c r="AH11" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1695,7 +1695,7 @@
         <v>0.975</v>
       </c>
       <c r="J12" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K12" t="n">
         <v>145.89</v>
@@ -1713,7 +1713,7 @@
         <v>4797</v>
       </c>
       <c r="P12" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q12" t="n">
         <v>0.12</v>
@@ -1737,10 +1737,10 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>23643.7088248818</v>
+        <v>23833.8924529792</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.6280286991558141</v>
+        <v>0.579582898547526</v>
       </c>
       <c r="Z12" t="n">
         <v>0</v>
@@ -1752,13 +1752,13 @@
         <v>0</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.0625563615577952</v>
+        <v>0.0881456997739181</v>
       </c>
       <c r="AD12" t="n">
-        <v>0.000869231290442256</v>
+        <v>0</v>
       </c>
       <c r="AE12" t="n">
-        <v>1.15</v>
+        <v>1.04322951829105</v>
       </c>
       <c r="AF12" t="inlineStr">
         <is>
@@ -1769,7 +1769,7 @@
         <v>0.003</v>
       </c>
       <c r="AH12" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1801,7 +1801,7 @@
         <v>0.975</v>
       </c>
       <c r="J13" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K13" t="n">
         <v>145.89</v>
@@ -1819,7 +1819,7 @@
         <v>4797</v>
       </c>
       <c r="P13" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q13" t="n">
         <v>0.12</v>
@@ -1843,10 +1843,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>23643.7088248818</v>
+        <v>23833.8924529792</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.6280286991558141</v>
+        <v>0.579582898547526</v>
       </c>
       <c r="Z13" t="n">
         <v>0</v>
@@ -1858,13 +1858,13 @@
         <v>0</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.0625563615577952</v>
+        <v>0.0881456997739181</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.000869231290442256</v>
+        <v>0</v>
       </c>
       <c r="AE13" t="n">
-        <v>1.15</v>
+        <v>1.04322951829105</v>
       </c>
       <c r="AF13" t="inlineStr">
         <is>
@@ -1875,7 +1875,7 @@
         <v>0.003</v>
       </c>
       <c r="AH13" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1907,7 +1907,7 @@
         <v>0.975</v>
       </c>
       <c r="J14" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K14" t="n">
         <v>145.89</v>
@@ -1925,7 +1925,7 @@
         <v>4797</v>
       </c>
       <c r="P14" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q14" t="n">
         <v>0.12</v>
@@ -1949,10 +1949,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>23643.7088248818</v>
+        <v>23833.8924529792</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.6280286991558141</v>
+        <v>0.579582898547526</v>
       </c>
       <c r="Z14" t="n">
         <v>0</v>
@@ -1964,13 +1964,13 @@
         <v>0</v>
       </c>
       <c r="AC14" t="n">
-        <v>0.0625563615577952</v>
+        <v>0.0881456997739181</v>
       </c>
       <c r="AD14" t="n">
-        <v>0.000869231290442256</v>
+        <v>0</v>
       </c>
       <c r="AE14" t="n">
-        <v>1.15</v>
+        <v>1.04322951829105</v>
       </c>
       <c r="AF14" t="inlineStr">
         <is>
@@ -1981,7 +1981,7 @@
         <v>0.003</v>
       </c>
       <c r="AH14" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -2013,7 +2013,7 @@
         <v>0.975</v>
       </c>
       <c r="J15" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K15" t="n">
         <v>145.89</v>
@@ -2031,7 +2031,7 @@
         <v>4797</v>
       </c>
       <c r="P15" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q15" t="n">
         <v>0.12</v>
@@ -2055,10 +2055,10 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>23643.7088248818</v>
+        <v>23833.8924529792</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.6280286991558141</v>
+        <v>0.579582898547526</v>
       </c>
       <c r="Z15" t="n">
         <v>0</v>
@@ -2070,13 +2070,13 @@
         <v>0</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.0625563615577952</v>
+        <v>0.0881456997739181</v>
       </c>
       <c r="AD15" t="n">
-        <v>0.000869231290442256</v>
+        <v>0</v>
       </c>
       <c r="AE15" t="n">
-        <v>1.15</v>
+        <v>1.04322951829105</v>
       </c>
       <c r="AF15" t="inlineStr">
         <is>
@@ -2087,7 +2087,7 @@
         <v>0.003</v>
       </c>
       <c r="AH15" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -2119,7 +2119,7 @@
         <v>0.975</v>
       </c>
       <c r="J16" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K16" t="n">
         <v>145.89</v>
@@ -2137,7 +2137,7 @@
         <v>4797</v>
       </c>
       <c r="P16" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q16" t="n">
         <v>0.12</v>
@@ -2161,10 +2161,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>23643.7088248818</v>
+        <v>23833.8924529792</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.6280286991558141</v>
+        <v>0.579582898547526</v>
       </c>
       <c r="Z16" t="n">
         <v>0</v>
@@ -2176,13 +2176,13 @@
         <v>0</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.0625563615577952</v>
+        <v>0.0881456997739181</v>
       </c>
       <c r="AD16" t="n">
-        <v>0.000869231290442256</v>
+        <v>0</v>
       </c>
       <c r="AE16" t="n">
-        <v>1.15</v>
+        <v>1.04322951829105</v>
       </c>
       <c r="AF16" t="inlineStr">
         <is>
@@ -2193,7 +2193,7 @@
         <v>0.003</v>
       </c>
       <c r="AH16" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -2225,7 +2225,7 @@
         <v>0.975</v>
       </c>
       <c r="J17" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K17" t="n">
         <v>145.89</v>
@@ -2243,7 +2243,7 @@
         <v>4797</v>
       </c>
       <c r="P17" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q17" t="n">
         <v>0.12</v>
@@ -2267,10 +2267,10 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>23643.7088248818</v>
+        <v>23833.8924529792</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.6280286991558141</v>
+        <v>0.579582898547526</v>
       </c>
       <c r="Z17" t="n">
         <v>0</v>
@@ -2282,13 +2282,13 @@
         <v>0</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.0625563615577952</v>
+        <v>0.0881456997739181</v>
       </c>
       <c r="AD17" t="n">
-        <v>0.000869231290442256</v>
+        <v>0</v>
       </c>
       <c r="AE17" t="n">
-        <v>1.15</v>
+        <v>1.04322951829105</v>
       </c>
       <c r="AF17" t="inlineStr">
         <is>
@@ -2299,7 +2299,7 @@
         <v>0.003</v>
       </c>
       <c r="AH17" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2331,7 +2331,7 @@
         <v>0.975</v>
       </c>
       <c r="J18" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K18" t="n">
         <v>145.89</v>
@@ -2349,7 +2349,7 @@
         <v>4797</v>
       </c>
       <c r="P18" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q18" t="n">
         <v>0.12</v>
@@ -2373,10 +2373,10 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>23643.7088248818</v>
+        <v>23833.8924529792</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.6280286991558141</v>
+        <v>0.579582898547526</v>
       </c>
       <c r="Z18" t="n">
         <v>0</v>
@@ -2388,13 +2388,13 @@
         <v>0</v>
       </c>
       <c r="AC18" t="n">
-        <v>0.0625563615577952</v>
+        <v>0.0881456997739181</v>
       </c>
       <c r="AD18" t="n">
-        <v>0.000869231290442256</v>
+        <v>0</v>
       </c>
       <c r="AE18" t="n">
-        <v>1.15</v>
+        <v>1.04322951829105</v>
       </c>
       <c r="AF18" t="inlineStr">
         <is>
@@ -2405,7 +2405,7 @@
         <v>0.003</v>
       </c>
       <c r="AH18" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2437,7 +2437,7 @@
         <v>0.975</v>
       </c>
       <c r="J19" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K19" t="n">
         <v>145.89</v>
@@ -2455,7 +2455,7 @@
         <v>4797</v>
       </c>
       <c r="P19" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q19" t="n">
         <v>0.12</v>
@@ -2479,10 +2479,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>23643.7088248818</v>
+        <v>23833.8924529792</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.6280286991558141</v>
+        <v>0.579582898547526</v>
       </c>
       <c r="Z19" t="n">
         <v>0</v>
@@ -2494,13 +2494,13 @@
         <v>0</v>
       </c>
       <c r="AC19" t="n">
-        <v>0.0625563615577952</v>
+        <v>0.0881456997739181</v>
       </c>
       <c r="AD19" t="n">
-        <v>0.000869231290442256</v>
+        <v>0</v>
       </c>
       <c r="AE19" t="n">
-        <v>1.15</v>
+        <v>1.04322951829105</v>
       </c>
       <c r="AF19" t="inlineStr">
         <is>
@@ -2511,7 +2511,7 @@
         <v>0.003</v>
       </c>
       <c r="AH19" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2543,7 +2543,7 @@
         <v>0.975</v>
       </c>
       <c r="J20" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K20" t="n">
         <v>145.89</v>
@@ -2561,7 +2561,7 @@
         <v>4797</v>
       </c>
       <c r="P20" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q20" t="n">
         <v>0.12</v>
@@ -2585,10 +2585,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>23643.7088248818</v>
+        <v>23833.8924529792</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.6280286991558141</v>
+        <v>0.579582898547526</v>
       </c>
       <c r="Z20" t="n">
         <v>0</v>
@@ -2600,13 +2600,13 @@
         <v>0</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.0625563615577952</v>
+        <v>0.0881456997739181</v>
       </c>
       <c r="AD20" t="n">
-        <v>0.000869231290442256</v>
+        <v>0</v>
       </c>
       <c r="AE20" t="n">
-        <v>1.15</v>
+        <v>1.04322951829105</v>
       </c>
       <c r="AF20" t="inlineStr">
         <is>
@@ -2617,7 +2617,7 @@
         <v>0.003</v>
       </c>
       <c r="AH20" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2649,7 +2649,7 @@
         <v>0.975</v>
       </c>
       <c r="J21" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K21" t="n">
         <v>145.89</v>
@@ -2667,7 +2667,7 @@
         <v>4797</v>
       </c>
       <c r="P21" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q21" t="n">
         <v>0.12</v>
@@ -2691,10 +2691,10 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>23643.7088248818</v>
+        <v>23833.8924529792</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.6280286991558141</v>
+        <v>0.579582898547526</v>
       </c>
       <c r="Z21" t="n">
         <v>0</v>
@@ -2706,13 +2706,13 @@
         <v>0</v>
       </c>
       <c r="AC21" t="n">
-        <v>0.0625563615577952</v>
+        <v>0.0881456997739181</v>
       </c>
       <c r="AD21" t="n">
-        <v>0.000869231290442256</v>
+        <v>0</v>
       </c>
       <c r="AE21" t="n">
-        <v>1.15</v>
+        <v>1.04322951829105</v>
       </c>
       <c r="AF21" t="inlineStr">
         <is>
@@ -2723,7 +2723,7 @@
         <v>0.003</v>
       </c>
       <c r="AH21" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2755,7 +2755,7 @@
         <v>0.975</v>
       </c>
       <c r="J22" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K22" t="n">
         <v>145.89</v>
@@ -2773,7 +2773,7 @@
         <v>4797</v>
       </c>
       <c r="P22" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q22" t="n">
         <v>0.12</v>
@@ -2797,10 +2797,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>23643.7088248818</v>
+        <v>23833.8924529792</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.6280286991558141</v>
+        <v>0.579582898547526</v>
       </c>
       <c r="Z22" t="n">
         <v>0</v>
@@ -2812,13 +2812,13 @@
         <v>0</v>
       </c>
       <c r="AC22" t="n">
-        <v>0.0625563615577952</v>
+        <v>0.0881456997739181</v>
       </c>
       <c r="AD22" t="n">
-        <v>0.000869231290442256</v>
+        <v>0</v>
       </c>
       <c r="AE22" t="n">
-        <v>1.15</v>
+        <v>1.04322951829105</v>
       </c>
       <c r="AF22" t="inlineStr">
         <is>
@@ -2829,7 +2829,7 @@
         <v>0.003</v>
       </c>
       <c r="AH22" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2861,7 +2861,7 @@
         <v>0.975</v>
       </c>
       <c r="J23" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K23" t="n">
         <v>145.89</v>
@@ -2879,7 +2879,7 @@
         <v>4797</v>
       </c>
       <c r="P23" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q23" t="n">
         <v>0.12</v>
@@ -2903,10 +2903,10 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>23643.7088248818</v>
+        <v>23833.8924529792</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.6280286991558141</v>
+        <v>0.579582898547526</v>
       </c>
       <c r="Z23" t="n">
         <v>0</v>
@@ -2918,13 +2918,13 @@
         <v>0</v>
       </c>
       <c r="AC23" t="n">
-        <v>0.0625563615577952</v>
+        <v>0.0881456997739181</v>
       </c>
       <c r="AD23" t="n">
-        <v>0.000869231290442256</v>
+        <v>0</v>
       </c>
       <c r="AE23" t="n">
-        <v>1.15</v>
+        <v>1.04322951829105</v>
       </c>
       <c r="AF23" t="inlineStr">
         <is>
@@ -2935,7 +2935,7 @@
         <v>0.003</v>
       </c>
       <c r="AH23" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2967,7 +2967,7 @@
         <v>0.975</v>
       </c>
       <c r="J24" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K24" t="n">
         <v>145.89</v>
@@ -2985,7 +2985,7 @@
         <v>4797</v>
       </c>
       <c r="P24" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q24" t="n">
         <v>0.12</v>
@@ -3009,10 +3009,10 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>23643.7088248818</v>
+        <v>23833.8924529792</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.6280286991558141</v>
+        <v>0.579582898547526</v>
       </c>
       <c r="Z24" t="n">
         <v>0</v>
@@ -3024,13 +3024,13 @@
         <v>0</v>
       </c>
       <c r="AC24" t="n">
-        <v>0.0625563615577952</v>
+        <v>0.0881456997739181</v>
       </c>
       <c r="AD24" t="n">
-        <v>0.000869231290442256</v>
+        <v>0</v>
       </c>
       <c r="AE24" t="n">
-        <v>1.15</v>
+        <v>1.04322951829105</v>
       </c>
       <c r="AF24" t="inlineStr">
         <is>
@@ -3041,7 +3041,7 @@
         <v>0.003</v>
       </c>
       <c r="AH24" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -3073,7 +3073,7 @@
         <v>0.975</v>
       </c>
       <c r="J25" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K25" t="n">
         <v>145.89</v>
@@ -3091,7 +3091,7 @@
         <v>4797</v>
       </c>
       <c r="P25" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q25" t="n">
         <v>0.12</v>
@@ -3115,10 +3115,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>23643.7088248818</v>
+        <v>23833.8924529792</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.6280286991558141</v>
+        <v>0.579582898547526</v>
       </c>
       <c r="Z25" t="n">
         <v>0</v>
@@ -3130,13 +3130,13 @@
         <v>0</v>
       </c>
       <c r="AC25" t="n">
-        <v>0.0625563615577952</v>
+        <v>0.0881456997739181</v>
       </c>
       <c r="AD25" t="n">
-        <v>0.000869231290442256</v>
+        <v>0</v>
       </c>
       <c r="AE25" t="n">
-        <v>1.15</v>
+        <v>1.04322951829105</v>
       </c>
       <c r="AF25" t="inlineStr">
         <is>
@@ -3147,7 +3147,7 @@
         <v>0.003</v>
       </c>
       <c r="AH25" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -3179,7 +3179,7 @@
         <v>0.975</v>
       </c>
       <c r="J26" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K26" t="n">
         <v>145.89</v>
@@ -3197,7 +3197,7 @@
         <v>4797</v>
       </c>
       <c r="P26" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q26" t="n">
         <v>0.12</v>
@@ -3221,10 +3221,10 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>23643.7088248818</v>
+        <v>23833.8924529792</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.6280286991558141</v>
+        <v>0.579582898547526</v>
       </c>
       <c r="Z26" t="n">
         <v>0</v>
@@ -3236,13 +3236,13 @@
         <v>0</v>
       </c>
       <c r="AC26" t="n">
-        <v>0.0625563615577952</v>
+        <v>0.0881456997739181</v>
       </c>
       <c r="AD26" t="n">
-        <v>0.000869231290442256</v>
+        <v>0</v>
       </c>
       <c r="AE26" t="n">
-        <v>1.15</v>
+        <v>1.04322951829105</v>
       </c>
       <c r="AF26" t="inlineStr">
         <is>
@@ -3253,7 +3253,7 @@
         <v>0.003</v>
       </c>
       <c r="AH26" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -3285,7 +3285,7 @@
         <v>0.975</v>
       </c>
       <c r="J27" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K27" t="n">
         <v>145.89</v>
@@ -3303,7 +3303,7 @@
         <v>4797</v>
       </c>
       <c r="P27" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q27" t="n">
         <v>0.12</v>
@@ -3327,10 +3327,10 @@
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>23643.7088248818</v>
+        <v>23833.8924529792</v>
       </c>
       <c r="Y27" t="n">
-        <v>0.6280286991558141</v>
+        <v>0.579582898547526</v>
       </c>
       <c r="Z27" t="n">
         <v>0</v>
@@ -3342,13 +3342,13 @@
         <v>0</v>
       </c>
       <c r="AC27" t="n">
-        <v>0.0625563615577952</v>
+        <v>0.0881456997739181</v>
       </c>
       <c r="AD27" t="n">
-        <v>0.000869231290442256</v>
+        <v>0</v>
       </c>
       <c r="AE27" t="n">
-        <v>1.15</v>
+        <v>1.04322951829105</v>
       </c>
       <c r="AF27" t="inlineStr">
         <is>
@@ -3359,7 +3359,7 @@
         <v>0.003</v>
       </c>
       <c r="AH27" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -3391,7 +3391,7 @@
         <v>0.975</v>
       </c>
       <c r="J28" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K28" t="n">
         <v>145.89</v>
@@ -3409,7 +3409,7 @@
         <v>4797</v>
       </c>
       <c r="P28" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q28" t="n">
         <v>0.12</v>
@@ -3433,10 +3433,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>23643.7088248818</v>
+        <v>23833.8924529792</v>
       </c>
       <c r="Y28" t="n">
-        <v>0.6280286991558141</v>
+        <v>0.579582898547526</v>
       </c>
       <c r="Z28" t="n">
         <v>0</v>
@@ -3448,13 +3448,13 @@
         <v>0</v>
       </c>
       <c r="AC28" t="n">
-        <v>0.0625563615577952</v>
+        <v>0.0881456997739181</v>
       </c>
       <c r="AD28" t="n">
-        <v>0.000869231290442256</v>
+        <v>0</v>
       </c>
       <c r="AE28" t="n">
-        <v>1.15</v>
+        <v>1.04322951829105</v>
       </c>
       <c r="AF28" t="inlineStr">
         <is>
@@ -3465,7 +3465,7 @@
         <v>0.003</v>
       </c>
       <c r="AH28" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -3497,7 +3497,7 @@
         <v>0.975</v>
       </c>
       <c r="J29" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K29" t="n">
         <v>145.89</v>
@@ -3515,7 +3515,7 @@
         <v>4797</v>
       </c>
       <c r="P29" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q29" t="n">
         <v>0.12</v>
@@ -3539,10 +3539,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>23643.7088248818</v>
+        <v>23833.8924529792</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.6280286991558141</v>
+        <v>0.579582898547526</v>
       </c>
       <c r="Z29" t="n">
         <v>0</v>
@@ -3554,13 +3554,13 @@
         <v>0</v>
       </c>
       <c r="AC29" t="n">
-        <v>0.0625563615577952</v>
+        <v>0.0881456997739181</v>
       </c>
       <c r="AD29" t="n">
-        <v>0.000869231290442256</v>
+        <v>0</v>
       </c>
       <c r="AE29" t="n">
-        <v>1.15</v>
+        <v>1.04322951829105</v>
       </c>
       <c r="AF29" t="inlineStr">
         <is>
@@ -3571,7 +3571,7 @@
         <v>0.003</v>
       </c>
       <c r="AH29" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -3603,7 +3603,7 @@
         <v>0.975</v>
       </c>
       <c r="J30" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K30" t="n">
         <v>145.89</v>
@@ -3621,7 +3621,7 @@
         <v>4797</v>
       </c>
       <c r="P30" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q30" t="n">
         <v>0.12</v>
@@ -3645,10 +3645,10 @@
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>23643.7088248818</v>
+        <v>23833.8924529792</v>
       </c>
       <c r="Y30" t="n">
-        <v>0.6280286991558141</v>
+        <v>0.579582898547526</v>
       </c>
       <c r="Z30" t="n">
         <v>0</v>
@@ -3660,13 +3660,13 @@
         <v>0</v>
       </c>
       <c r="AC30" t="n">
-        <v>0.0625563615577952</v>
+        <v>0.0881456997739181</v>
       </c>
       <c r="AD30" t="n">
-        <v>0.000869231290442256</v>
+        <v>0</v>
       </c>
       <c r="AE30" t="n">
-        <v>1.15</v>
+        <v>1.04322951829105</v>
       </c>
       <c r="AF30" t="inlineStr">
         <is>
@@ -3677,7 +3677,7 @@
         <v>0.003</v>
       </c>
       <c r="AH30" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -3709,7 +3709,7 @@
         <v>0.975</v>
       </c>
       <c r="J31" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K31" t="n">
         <v>145.89</v>
@@ -3727,7 +3727,7 @@
         <v>4797</v>
       </c>
       <c r="P31" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q31" t="n">
         <v>0.12</v>
@@ -3751,10 +3751,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>23643.7088248818</v>
+        <v>23833.8924529792</v>
       </c>
       <c r="Y31" t="n">
-        <v>0.6280286991558141</v>
+        <v>0.579582898547526</v>
       </c>
       <c r="Z31" t="n">
         <v>0</v>
@@ -3766,13 +3766,13 @@
         <v>0</v>
       </c>
       <c r="AC31" t="n">
-        <v>0.0625563615577952</v>
+        <v>0.0881456997739181</v>
       </c>
       <c r="AD31" t="n">
-        <v>0.000869231290442256</v>
+        <v>0</v>
       </c>
       <c r="AE31" t="n">
-        <v>1.15</v>
+        <v>1.04322951829105</v>
       </c>
       <c r="AF31" t="inlineStr">
         <is>
@@ -3783,7 +3783,7 @@
         <v>0.003</v>
       </c>
       <c r="AH31" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3815,7 +3815,7 @@
         <v>0.975</v>
       </c>
       <c r="J32" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K32" t="n">
         <v>145.89</v>
@@ -3833,7 +3833,7 @@
         <v>4797</v>
       </c>
       <c r="P32" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q32" t="n">
         <v>0.12</v>
@@ -3857,10 +3857,10 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>23643.7088248818</v>
+        <v>23833.8924529792</v>
       </c>
       <c r="Y32" t="n">
-        <v>0.6280286991558141</v>
+        <v>0.579582898547526</v>
       </c>
       <c r="Z32" t="n">
         <v>0</v>
@@ -3872,13 +3872,13 @@
         <v>0</v>
       </c>
       <c r="AC32" t="n">
-        <v>0.0625563615577952</v>
+        <v>0.0881456997739181</v>
       </c>
       <c r="AD32" t="n">
-        <v>0.000869231290442256</v>
+        <v>0</v>
       </c>
       <c r="AE32" t="n">
-        <v>1.15</v>
+        <v>1.04322951829105</v>
       </c>
       <c r="AF32" t="inlineStr">
         <is>
@@ -3889,7 +3889,7 @@
         <v>0.003</v>
       </c>
       <c r="AH32" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3921,7 +3921,7 @@
         <v>0.975</v>
       </c>
       <c r="J33" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K33" t="n">
         <v>145.89</v>
@@ -3939,7 +3939,7 @@
         <v>4797</v>
       </c>
       <c r="P33" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q33" t="n">
         <v>0.12</v>
@@ -3963,10 +3963,10 @@
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>23643.7088248818</v>
+        <v>23833.8924529792</v>
       </c>
       <c r="Y33" t="n">
-        <v>0.6280286991558141</v>
+        <v>0.579582898547526</v>
       </c>
       <c r="Z33" t="n">
         <v>0</v>
@@ -3978,13 +3978,13 @@
         <v>0</v>
       </c>
       <c r="AC33" t="n">
-        <v>0.0625563615577952</v>
+        <v>0.0881456997739181</v>
       </c>
       <c r="AD33" t="n">
-        <v>0.000869231290442256</v>
+        <v>0</v>
       </c>
       <c r="AE33" t="n">
-        <v>1.15</v>
+        <v>1.04322951829105</v>
       </c>
       <c r="AF33" t="inlineStr">
         <is>
@@ -3995,7 +3995,7 @@
         <v>0.003</v>
       </c>
       <c r="AH33" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -4027,7 +4027,7 @@
         <v>0.975</v>
       </c>
       <c r="J34" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K34" t="n">
         <v>145.89</v>
@@ -4045,7 +4045,7 @@
         <v>4797</v>
       </c>
       <c r="P34" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q34" t="n">
         <v>0.12</v>
@@ -4069,10 +4069,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>23643.7088248818</v>
+        <v>23833.8924529792</v>
       </c>
       <c r="Y34" t="n">
-        <v>0.6280286991558141</v>
+        <v>0.579582898547526</v>
       </c>
       <c r="Z34" t="n">
         <v>0</v>
@@ -4084,13 +4084,13 @@
         <v>0</v>
       </c>
       <c r="AC34" t="n">
-        <v>0.0625563615577952</v>
+        <v>0.0881456997739181</v>
       </c>
       <c r="AD34" t="n">
-        <v>0.000869231290442256</v>
+        <v>0</v>
       </c>
       <c r="AE34" t="n">
-        <v>1.15</v>
+        <v>1.04322951829105</v>
       </c>
       <c r="AF34" t="inlineStr">
         <is>
@@ -4101,7 +4101,7 @@
         <v>0.003</v>
       </c>
       <c r="AH34" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -4133,7 +4133,7 @@
         <v>0.975</v>
       </c>
       <c r="J35" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K35" t="n">
         <v>145.89</v>
@@ -4151,7 +4151,7 @@
         <v>4797</v>
       </c>
       <c r="P35" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q35" t="n">
         <v>0.12</v>
@@ -4175,10 +4175,10 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>23643.7088248818</v>
+        <v>23833.8924529792</v>
       </c>
       <c r="Y35" t="n">
-        <v>0.6280286991558141</v>
+        <v>0.579582898547526</v>
       </c>
       <c r="Z35" t="n">
         <v>0</v>
@@ -4190,13 +4190,13 @@
         <v>0</v>
       </c>
       <c r="AC35" t="n">
-        <v>0.0625563615577952</v>
+        <v>0.0881456997739181</v>
       </c>
       <c r="AD35" t="n">
-        <v>0.000869231290442256</v>
+        <v>0</v>
       </c>
       <c r="AE35" t="n">
-        <v>1.15</v>
+        <v>1.04322951829105</v>
       </c>
       <c r="AF35" t="inlineStr">
         <is>
@@ -4207,7 +4207,7 @@
         <v>0.003</v>
       </c>
       <c r="AH35" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -4239,7 +4239,7 @@
         <v>0.975</v>
       </c>
       <c r="J36" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K36" t="n">
         <v>145.89</v>
@@ -4257,7 +4257,7 @@
         <v>4797</v>
       </c>
       <c r="P36" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q36" t="n">
         <v>0.12</v>
@@ -4281,10 +4281,10 @@
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>23643.7088248818</v>
+        <v>23833.8924529792</v>
       </c>
       <c r="Y36" t="n">
-        <v>0.6280286991558141</v>
+        <v>0.579582898547526</v>
       </c>
       <c r="Z36" t="n">
         <v>0</v>
@@ -4296,13 +4296,13 @@
         <v>0</v>
       </c>
       <c r="AC36" t="n">
-        <v>0.0625563615577952</v>
+        <v>0.0881456997739181</v>
       </c>
       <c r="AD36" t="n">
-        <v>0.000869231290442256</v>
+        <v>0</v>
       </c>
       <c r="AE36" t="n">
-        <v>1.15</v>
+        <v>1.04322951829105</v>
       </c>
       <c r="AF36" t="inlineStr">
         <is>
@@ -4313,7 +4313,7 @@
         <v>0.003</v>
       </c>
       <c r="AH36" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -4345,7 +4345,7 @@
         <v>0.975</v>
       </c>
       <c r="J37" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K37" t="n">
         <v>145.89</v>
@@ -4363,7 +4363,7 @@
         <v>4797</v>
       </c>
       <c r="P37" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q37" t="n">
         <v>0.12</v>
@@ -4387,10 +4387,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>23643.7088248818</v>
+        <v>23833.8924529792</v>
       </c>
       <c r="Y37" t="n">
-        <v>0.6280286991558141</v>
+        <v>0.579582898547526</v>
       </c>
       <c r="Z37" t="n">
         <v>0</v>
@@ -4402,13 +4402,13 @@
         <v>0</v>
       </c>
       <c r="AC37" t="n">
-        <v>0.0625563615577952</v>
+        <v>0.0881456997739181</v>
       </c>
       <c r="AD37" t="n">
-        <v>0.000869231290442256</v>
+        <v>0</v>
       </c>
       <c r="AE37" t="n">
-        <v>1.15</v>
+        <v>1.04322951829105</v>
       </c>
       <c r="AF37" t="inlineStr">
         <is>
@@ -4419,7 +4419,7 @@
         <v>0.003</v>
       </c>
       <c r="AH37" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -4451,7 +4451,7 @@
         <v>0.975</v>
       </c>
       <c r="J38" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K38" t="n">
         <v>145.89</v>
@@ -4469,7 +4469,7 @@
         <v>4797</v>
       </c>
       <c r="P38" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q38" t="n">
         <v>0.12</v>
@@ -4493,10 +4493,10 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>23643.7088248818</v>
+        <v>23833.8924529792</v>
       </c>
       <c r="Y38" t="n">
-        <v>0.6280286991558141</v>
+        <v>0.579582898547526</v>
       </c>
       <c r="Z38" t="n">
         <v>0</v>
@@ -4508,13 +4508,13 @@
         <v>0</v>
       </c>
       <c r="AC38" t="n">
-        <v>0.0625563615577952</v>
+        <v>0.0881456997739181</v>
       </c>
       <c r="AD38" t="n">
-        <v>0.000869231290442256</v>
+        <v>0</v>
       </c>
       <c r="AE38" t="n">
-        <v>1.15</v>
+        <v>1.04322951829105</v>
       </c>
       <c r="AF38" t="inlineStr">
         <is>
@@ -4525,7 +4525,7 @@
         <v>0.003</v>
       </c>
       <c r="AH38" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -4557,7 +4557,7 @@
         <v>0.975</v>
       </c>
       <c r="J39" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K39" t="n">
         <v>145.89</v>
@@ -4575,7 +4575,7 @@
         <v>4797</v>
       </c>
       <c r="P39" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q39" t="n">
         <v>0.12</v>
@@ -4599,10 +4599,10 @@
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>23643.7088248818</v>
+        <v>23833.8924529792</v>
       </c>
       <c r="Y39" t="n">
-        <v>0.6280286991558141</v>
+        <v>0.579582898547526</v>
       </c>
       <c r="Z39" t="n">
         <v>0</v>
@@ -4614,13 +4614,13 @@
         <v>0</v>
       </c>
       <c r="AC39" t="n">
-        <v>0.0625563615577952</v>
+        <v>0.0881456997739181</v>
       </c>
       <c r="AD39" t="n">
-        <v>0.000869231290442256</v>
+        <v>0</v>
       </c>
       <c r="AE39" t="n">
-        <v>1.15</v>
+        <v>1.04322951829105</v>
       </c>
       <c r="AF39" t="inlineStr">
         <is>
@@ -4631,7 +4631,7 @@
         <v>0.003</v>
       </c>
       <c r="AH39" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -4663,7 +4663,7 @@
         <v>0.975</v>
       </c>
       <c r="J40" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K40" t="n">
         <v>145.89</v>
@@ -4681,7 +4681,7 @@
         <v>4797</v>
       </c>
       <c r="P40" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q40" t="n">
         <v>0.12</v>
@@ -4705,10 +4705,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>23643.7088248818</v>
+        <v>23833.8924529792</v>
       </c>
       <c r="Y40" t="n">
-        <v>0.6280286991558141</v>
+        <v>0.579582898547526</v>
       </c>
       <c r="Z40" t="n">
         <v>0</v>
@@ -4720,13 +4720,13 @@
         <v>0</v>
       </c>
       <c r="AC40" t="n">
-        <v>0.0625563615577952</v>
+        <v>0.0881456997739181</v>
       </c>
       <c r="AD40" t="n">
-        <v>0.000869231290442256</v>
+        <v>0</v>
       </c>
       <c r="AE40" t="n">
-        <v>1.15</v>
+        <v>1.04322951829105</v>
       </c>
       <c r="AF40" t="inlineStr">
         <is>
@@ -4737,7 +4737,7 @@
         <v>0.003</v>
       </c>
       <c r="AH40" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -4769,7 +4769,7 @@
         <v>0.975</v>
       </c>
       <c r="J41" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K41" t="n">
         <v>145.89</v>
@@ -4787,7 +4787,7 @@
         <v>4797</v>
       </c>
       <c r="P41" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q41" t="n">
         <v>0.12</v>
@@ -4811,10 +4811,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>23643.7088248818</v>
+        <v>23833.8924529792</v>
       </c>
       <c r="Y41" t="n">
-        <v>0.6280286991558141</v>
+        <v>0.579582898547526</v>
       </c>
       <c r="Z41" t="n">
         <v>0</v>
@@ -4826,13 +4826,13 @@
         <v>0</v>
       </c>
       <c r="AC41" t="n">
-        <v>0.0625563615577952</v>
+        <v>0.0881456997739181</v>
       </c>
       <c r="AD41" t="n">
-        <v>0.000869231290442256</v>
+        <v>0</v>
       </c>
       <c r="AE41" t="n">
-        <v>1.15</v>
+        <v>1.04322951829105</v>
       </c>
       <c r="AF41" t="inlineStr">
         <is>
@@ -4843,7 +4843,7 @@
         <v>0.003</v>
       </c>
       <c r="AH41" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -4875,7 +4875,7 @@
         <v>0.975</v>
       </c>
       <c r="J42" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K42" t="n">
         <v>145.89</v>
@@ -4893,7 +4893,7 @@
         <v>4797</v>
       </c>
       <c r="P42" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q42" t="n">
         <v>0.12</v>
@@ -4917,10 +4917,10 @@
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>23643.7088248818</v>
+        <v>23833.8924529792</v>
       </c>
       <c r="Y42" t="n">
-        <v>0.6280286991558141</v>
+        <v>0.579582898547526</v>
       </c>
       <c r="Z42" t="n">
         <v>0</v>
@@ -4932,13 +4932,13 @@
         <v>0</v>
       </c>
       <c r="AC42" t="n">
-        <v>0.0625563615577952</v>
+        <v>0.0881456997739181</v>
       </c>
       <c r="AD42" t="n">
-        <v>0.000869231290442256</v>
+        <v>0</v>
       </c>
       <c r="AE42" t="n">
-        <v>1.15</v>
+        <v>1.04322951829105</v>
       </c>
       <c r="AF42" t="inlineStr">
         <is>
@@ -4949,7 +4949,7 @@
         <v>0.003</v>
       </c>
       <c r="AH42" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -4981,7 +4981,7 @@
         <v>0.975</v>
       </c>
       <c r="J43" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K43" t="n">
         <v>145.89</v>
@@ -4999,7 +4999,7 @@
         <v>4797</v>
       </c>
       <c r="P43" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q43" t="n">
         <v>0.12</v>
@@ -5023,10 +5023,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>23643.7088248818</v>
+        <v>23833.8924529792</v>
       </c>
       <c r="Y43" t="n">
-        <v>0.6280286991558141</v>
+        <v>0.579582898547526</v>
       </c>
       <c r="Z43" t="n">
         <v>0</v>
@@ -5038,13 +5038,13 @@
         <v>0</v>
       </c>
       <c r="AC43" t="n">
-        <v>0.0625563615577952</v>
+        <v>0.0881456997739181</v>
       </c>
       <c r="AD43" t="n">
-        <v>0.000869231290442256</v>
+        <v>0</v>
       </c>
       <c r="AE43" t="n">
-        <v>1.15</v>
+        <v>1.04322951829105</v>
       </c>
       <c r="AF43" t="inlineStr">
         <is>
@@ -5055,7 +5055,7 @@
         <v>0.003</v>
       </c>
       <c r="AH43" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -5087,7 +5087,7 @@
         <v>0.975</v>
       </c>
       <c r="J44" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K44" t="n">
         <v>145.89</v>
@@ -5105,7 +5105,7 @@
         <v>4797</v>
       </c>
       <c r="P44" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q44" t="n">
         <v>0.12</v>
@@ -5129,10 +5129,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>23643.7088248818</v>
+        <v>23833.8924529792</v>
       </c>
       <c r="Y44" t="n">
-        <v>0.6280286991558141</v>
+        <v>0.579582898547526</v>
       </c>
       <c r="Z44" t="n">
         <v>0</v>
@@ -5144,13 +5144,13 @@
         <v>0</v>
       </c>
       <c r="AC44" t="n">
-        <v>0.0625563615577952</v>
+        <v>0.0881456997739181</v>
       </c>
       <c r="AD44" t="n">
-        <v>0.000869231290442256</v>
+        <v>0</v>
       </c>
       <c r="AE44" t="n">
-        <v>1.15</v>
+        <v>1.04322951829105</v>
       </c>
       <c r="AF44" t="inlineStr">
         <is>
@@ -5161,7 +5161,7 @@
         <v>0.003</v>
       </c>
       <c r="AH44" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -5193,7 +5193,7 @@
         <v>0.975</v>
       </c>
       <c r="J45" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K45" t="n">
         <v>145.89</v>
@@ -5211,7 +5211,7 @@
         <v>4797</v>
       </c>
       <c r="P45" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q45" t="n">
         <v>0.12</v>
@@ -5235,10 +5235,10 @@
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>23643.7088248818</v>
+        <v>23833.8924529792</v>
       </c>
       <c r="Y45" t="n">
-        <v>0.6280286991558141</v>
+        <v>0.579582898547526</v>
       </c>
       <c r="Z45" t="n">
         <v>0</v>
@@ -5250,13 +5250,13 @@
         <v>0</v>
       </c>
       <c r="AC45" t="n">
-        <v>0.0625563615577952</v>
+        <v>0.0881456997739181</v>
       </c>
       <c r="AD45" t="n">
-        <v>0.000869231290442256</v>
+        <v>0</v>
       </c>
       <c r="AE45" t="n">
-        <v>1.15</v>
+        <v>1.04322951829105</v>
       </c>
       <c r="AF45" t="inlineStr">
         <is>
@@ -5267,7 +5267,7 @@
         <v>0.003</v>
       </c>
       <c r="AH45" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -5299,7 +5299,7 @@
         <v>0.975</v>
       </c>
       <c r="J46" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K46" t="n">
         <v>145.89</v>
@@ -5317,7 +5317,7 @@
         <v>4797</v>
       </c>
       <c r="P46" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q46" t="n">
         <v>0.12</v>
@@ -5341,10 +5341,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>23643.7088248818</v>
+        <v>23833.8924529792</v>
       </c>
       <c r="Y46" t="n">
-        <v>0.6280286991558141</v>
+        <v>0.579582898547526</v>
       </c>
       <c r="Z46" t="n">
         <v>0</v>
@@ -5356,13 +5356,13 @@
         <v>0</v>
       </c>
       <c r="AC46" t="n">
-        <v>0.0625563615577952</v>
+        <v>0.0881456997739181</v>
       </c>
       <c r="AD46" t="n">
-        <v>0.000869231290442256</v>
+        <v>0</v>
       </c>
       <c r="AE46" t="n">
-        <v>1.15</v>
+        <v>1.04322951829105</v>
       </c>
       <c r="AF46" t="inlineStr">
         <is>
@@ -5373,7 +5373,325 @@
         <v>0.003</v>
       </c>
       <c r="AH46" t="n">
-        <v>0.05</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>239000</v>
+      </c>
+      <c r="B47" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C47" t="n">
+        <v>24</v>
+      </c>
+      <c r="D47" t="n">
+        <v>2</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F47" t="n">
+        <v>101.96</v>
+      </c>
+      <c r="G47" t="n">
+        <v>60.08</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.848535286284953</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0.975</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0.0008729999999999998</v>
+      </c>
+      <c r="K47" t="n">
+        <v>145.89</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0.4034</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0.5189</v>
+      </c>
+      <c r="O47" t="n">
+        <v>4797</v>
+      </c>
+      <c r="P47" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="R47" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="S47" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T47" t="n">
+        <v>10000</v>
+      </c>
+      <c r="U47" t="n">
+        <v>0.1068</v>
+      </c>
+      <c r="V47" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="W47" t="n">
+        <v>0</v>
+      </c>
+      <c r="X47" t="n">
+        <v>23833.8924529792</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>0.579582898547526</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>0.0881456997739181</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>1.04322951829105</v>
+      </c>
+      <c r="AF47" t="inlineStr">
+        <is>
+          <t>Qingdao</t>
+        </is>
+      </c>
+      <c r="AG47" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="AH47" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>239000</v>
+      </c>
+      <c r="B48" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C48" t="n">
+        <v>24</v>
+      </c>
+      <c r="D48" t="n">
+        <v>2</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F48" t="n">
+        <v>101.96</v>
+      </c>
+      <c r="G48" t="n">
+        <v>60.08</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.848535286284953</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0.975</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0.0008729999999999998</v>
+      </c>
+      <c r="K48" t="n">
+        <v>145.89</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0.4034</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0.5189</v>
+      </c>
+      <c r="O48" t="n">
+        <v>4797</v>
+      </c>
+      <c r="P48" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="R48" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="S48" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T48" t="n">
+        <v>10000</v>
+      </c>
+      <c r="U48" t="n">
+        <v>0.1068</v>
+      </c>
+      <c r="V48" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="W48" t="n">
+        <v>0</v>
+      </c>
+      <c r="X48" t="n">
+        <v>23833.8924529792</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>0.579582898547526</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>0.0881456997739181</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE48" t="n">
+        <v>1.04322951829105</v>
+      </c>
+      <c r="AF48" t="inlineStr">
+        <is>
+          <t>Qingdao</t>
+        </is>
+      </c>
+      <c r="AG48" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="AH48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>239000</v>
+      </c>
+      <c r="B49" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C49" t="n">
+        <v>24</v>
+      </c>
+      <c r="D49" t="n">
+        <v>2</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F49" t="n">
+        <v>101.96</v>
+      </c>
+      <c r="G49" t="n">
+        <v>60.08</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.848535286284953</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0.975</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0.0008729999999999998</v>
+      </c>
+      <c r="K49" t="n">
+        <v>145.89</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0.4034</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0.5189</v>
+      </c>
+      <c r="O49" t="n">
+        <v>4797</v>
+      </c>
+      <c r="P49" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="R49" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="S49" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T49" t="n">
+        <v>10000</v>
+      </c>
+      <c r="U49" t="n">
+        <v>0.1068</v>
+      </c>
+      <c r="V49" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="W49" t="n">
+        <v>0</v>
+      </c>
+      <c r="X49" t="n">
+        <v>23833.8924529792</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>0.579582898547526</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>0.0881456997739181</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE49" t="n">
+        <v>1.04322951829105</v>
+      </c>
+      <c r="AF49" t="inlineStr">
+        <is>
+          <t>Qingdao</t>
+        </is>
+      </c>
+      <c r="AG49" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="AH49" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
